--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_25_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-951265.86427285</v>
+        <v>-954103.3512453655</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.380205552662233</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
-        <v>103.5843408413239</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.0462654106501</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666381</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3.520507596287421</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>75.38724923386376</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>312.6092550434439</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>387.1443639382615</v>
       </c>
       <c r="G5" t="n">
-        <v>387.1443639382612</v>
+        <v>387.1443639382615</v>
       </c>
       <c r="H5" t="n">
-        <v>309.8191260590221</v>
+        <v>118.7603626293375</v>
       </c>
       <c r="I5" t="n">
-        <v>98.83908242502187</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>33.68798027969908</v>
+        <v>33.68798027969899</v>
       </c>
       <c r="S5" t="n">
-        <v>143.0341090694063</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4198850150381</v>
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7941764535314</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.27207475090984</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.9048469569444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>159.9553226712627</v>
+        <v>193.9197983781758</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8394517711275</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.30395285859468</v>
       </c>
     </row>
     <row r="7">
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>274.8237201607342</v>
+        <v>274.8237201607348</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>302.9984871183669</v>
       </c>
       <c r="G8" t="n">
-        <v>264.0014117991164</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>132.2525558472916</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>186.8101635945735</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>136.3525127092046</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.0133056736544</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9322284908373</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.7715349547568</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.8784673763435</v>
+        <v>108.5813113004307</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695436</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,7 +2248,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>139.9142662664077</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699813</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8253826161909023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>126.4418041083153</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="C2" t="n">
-        <v>133.0228471103738</v>
+        <v>400.3029543659133</v>
       </c>
       <c r="D2" t="n">
-        <v>126.5781950369776</v>
+        <v>210.8831693494284</v>
       </c>
       <c r="E2" t="n">
-        <v>21.94754772250906</v>
+        <v>210.8831693494284</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>203.9376686002249</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058979</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
         <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262253</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433434</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433434</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433434</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433434</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="W2" t="n">
-        <v>322.4426321268586</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="X2" t="n">
-        <v>322.4426321268586</v>
+        <v>589.7227393823981</v>
       </c>
       <c r="Y2" t="n">
-        <v>322.4426321268586</v>
+        <v>589.7227393823981</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>557.1264953697166</v>
+        <v>484.5338270489328</v>
       </c>
       <c r="C3" t="n">
-        <v>382.6734660885896</v>
+        <v>484.5338270489328</v>
       </c>
       <c r="D3" t="n">
-        <v>233.7390564273384</v>
+        <v>335.5994173876815</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>176.361962382226</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>176.361962382226</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>176.361962382226</v>
       </c>
       <c r="H3" t="n">
         <v>74.50160142188287</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772647</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140242</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017061</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652796</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>746.5462803862014</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>746.5462803862014</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>746.5462803862014</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V3" t="n">
-        <v>557.1264953697166</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W3" t="n">
-        <v>557.1264953697166</v>
+        <v>484.5338270489328</v>
       </c>
       <c r="X3" t="n">
-        <v>557.1264953697166</v>
+        <v>484.5338270489328</v>
       </c>
       <c r="Y3" t="n">
-        <v>557.1264953697166</v>
+        <v>484.5338270489328</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="C5" t="n">
-        <v>1157.524956395324</v>
+        <v>933.041337504819</v>
       </c>
       <c r="D5" t="n">
-        <v>1157.524956395324</v>
+        <v>933.041337504819</v>
       </c>
       <c r="E5" t="n">
-        <v>841.7580321090171</v>
+        <v>933.041337504819</v>
       </c>
       <c r="F5" t="n">
-        <v>834.8125313598136</v>
+        <v>541.986424435868</v>
       </c>
       <c r="G5" t="n">
-        <v>443.7576182908629</v>
+        <v>150.9315113669169</v>
       </c>
       <c r="H5" t="n">
-        <v>130.8090061100325</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="I5" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="J5" t="n">
-        <v>95.04805787398868</v>
+        <v>95.04805787398874</v>
       </c>
       <c r="K5" t="n">
-        <v>241.8206526282317</v>
+        <v>241.8206526282318</v>
       </c>
       <c r="L5" t="n">
-        <v>460.8067967994297</v>
+        <v>460.8067967994298</v>
       </c>
       <c r="M5" t="n">
-        <v>736.1405137467287</v>
+        <v>736.1405137467291</v>
       </c>
       <c r="N5" t="n">
-        <v>1020.543226465607</v>
+        <v>1020.543226465608</v>
       </c>
       <c r="O5" t="n">
-        <v>1275.761382127144</v>
+        <v>1275.761382127145</v>
       </c>
       <c r="P5" t="n">
-        <v>1459.083172444595</v>
+        <v>1459.083172444596</v>
       </c>
       <c r="Q5" t="n">
-        <v>1548.577455753045</v>
+        <v>1548.577455753046</v>
       </c>
       <c r="R5" t="n">
-        <v>1514.549192844258</v>
+        <v>1514.549192844259</v>
       </c>
       <c r="S5" t="n">
-        <v>1370.070294794353</v>
+        <v>1514.549192844259</v>
       </c>
       <c r="T5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="U5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="V5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="W5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="X5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.524956395324</v>
+        <v>1302.003854445231</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>351.9591363693029</v>
+        <v>412.9265628502378</v>
       </c>
       <c r="C6" t="n">
-        <v>177.5061070881759</v>
+        <v>412.9265628502378</v>
       </c>
       <c r="D6" t="n">
-        <v>177.5061070881759</v>
+        <v>412.9265628502378</v>
       </c>
       <c r="E6" t="n">
-        <v>177.5061070881759</v>
+        <v>412.9265628502378</v>
       </c>
       <c r="F6" t="n">
-        <v>30.9715491150609</v>
+        <v>266.3920048771228</v>
       </c>
       <c r="G6" t="n">
-        <v>30.9715491150609</v>
+        <v>129.2261700755759</v>
       </c>
       <c r="H6" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="I6" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="J6" t="n">
-        <v>50.31723180685512</v>
+        <v>50.31723180685523</v>
       </c>
       <c r="K6" t="n">
-        <v>161.5369095870598</v>
+        <v>161.53690958706</v>
       </c>
       <c r="L6" t="n">
-        <v>357.4080328784291</v>
+        <v>357.4080328784295</v>
       </c>
       <c r="M6" t="n">
-        <v>605.3372632876903</v>
+        <v>605.337263287691</v>
       </c>
       <c r="N6" t="n">
-        <v>874.2370876051823</v>
+        <v>874.2370876051832</v>
       </c>
       <c r="O6" t="n">
-        <v>1098.008097812163</v>
+        <v>1098.008097812164</v>
       </c>
       <c r="P6" t="n">
-        <v>1258.270995260729</v>
+        <v>1258.27099526073</v>
       </c>
       <c r="Q6" t="n">
-        <v>1315.483301610131</v>
+        <v>1315.483301610132</v>
       </c>
       <c r="R6" t="n">
-        <v>1315.483301610131</v>
+        <v>1315.483301610132</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.134971350591</v>
+        <v>1315.483301610132</v>
       </c>
       <c r="T6" t="n">
-        <v>1009.563938349315</v>
+        <v>1119.604717389752</v>
       </c>
       <c r="U6" t="n">
-        <v>1009.563938349315</v>
+        <v>891.4840590350781</v>
       </c>
       <c r="V6" t="n">
-        <v>774.4118301175727</v>
+        <v>891.4840590350781</v>
       </c>
       <c r="W6" t="n">
-        <v>520.174473389371</v>
+        <v>637.2467023068764</v>
       </c>
       <c r="X6" t="n">
-        <v>520.174473389371</v>
+        <v>429.3952021013436</v>
       </c>
       <c r="Y6" t="n">
-        <v>520.174473389371</v>
+        <v>412.9265628502378</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="C7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="D7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="E7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="F7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="G7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="H7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="I7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="J7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="K7" t="n">
-        <v>52.64965043609759</v>
+        <v>52.64965043609766</v>
       </c>
       <c r="L7" t="n">
-        <v>110.2959543201725</v>
+        <v>110.2959543201727</v>
       </c>
       <c r="M7" t="n">
-        <v>174.3341821718895</v>
+        <v>174.3341821718898</v>
       </c>
       <c r="N7" t="n">
-        <v>244.7072500037178</v>
+        <v>244.7072500037181</v>
       </c>
       <c r="O7" t="n">
-        <v>289.3950794398839</v>
+        <v>289.3950794398843</v>
       </c>
       <c r="P7" t="n">
-        <v>308.5712664491359</v>
+        <v>308.5712664491364</v>
       </c>
       <c r="Q7" t="n">
-        <v>308.5712664491359</v>
+        <v>308.5712664491364</v>
       </c>
       <c r="R7" t="n">
-        <v>308.5712664491359</v>
+        <v>308.5712664491364</v>
       </c>
       <c r="S7" t="n">
-        <v>308.5712664491359</v>
+        <v>308.5712664491364</v>
       </c>
       <c r="T7" t="n">
-        <v>308.5712664491359</v>
+        <v>308.5712664491364</v>
       </c>
       <c r="U7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="V7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="W7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="X7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.9715491150609</v>
+        <v>30.97154911506092</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>721.0231940540809</v>
+        <v>1151.24757233027</v>
       </c>
       <c r="C8" t="n">
-        <v>721.0231940540809</v>
+        <v>1151.24757233027</v>
       </c>
       <c r="D8" t="n">
-        <v>721.0231940540809</v>
+        <v>1151.24757233027</v>
       </c>
       <c r="E8" t="n">
-        <v>721.0231940540809</v>
+        <v>765.4593197320262</v>
       </c>
       <c r="F8" t="n">
-        <v>310.0372892644734</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904657</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561087</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290972</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="X8" t="n">
-        <v>1111.162526029893</v>
+        <v>1541.386904306082</v>
       </c>
       <c r="Y8" t="n">
-        <v>721.0231940540809</v>
+        <v>1151.24757233027</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>715.0610104825041</v>
+        <v>672.5286484590418</v>
       </c>
       <c r="C9" t="n">
-        <v>715.0610104825041</v>
+        <v>498.0756191779149</v>
       </c>
       <c r="D9" t="n">
-        <v>581.4725702327146</v>
+        <v>349.1412095166636</v>
       </c>
       <c r="E9" t="n">
-        <v>422.235115227259</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F9" t="n">
-        <v>275.700557254144</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S9" t="n">
-        <v>1627.262386835208</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T9" t="n">
-        <v>1432.552065309184</v>
+        <v>1577.529912389473</v>
       </c>
       <c r="U9" t="n">
-        <v>1204.450475442448</v>
+        <v>1577.529912389473</v>
       </c>
       <c r="V9" t="n">
-        <v>969.2983672107057</v>
+        <v>1342.37780415773</v>
       </c>
       <c r="W9" t="n">
-        <v>715.0610104825041</v>
+        <v>1088.140447429529</v>
       </c>
       <c r="X9" t="n">
-        <v>715.0610104825041</v>
+        <v>880.2889472239958</v>
       </c>
       <c r="Y9" t="n">
-        <v>715.0610104825041</v>
+        <v>672.5286484590418</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809315</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809315</v>
+        <v>359.7366157340737</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809315</v>
+        <v>209.6199763217379</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>61.70688273934482</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>298.0536847439801</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>298.0536847439801</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>43.36919653809315</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809315</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809315</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809315</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.043492616109</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755821</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>250.5823850776717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>250.5823850776717</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5270,31 +5270,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>923.0670414349511</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.7363435406111</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.06254548757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2002.343823311048</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1713.268596655246</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1458.584108449359</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1169.166938412398</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>941.1773875143809</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>720.3848083708508</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400744</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400744</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400744</v>
+        <v>665.4938956360527</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576813</v>
+        <v>517.5808020536596</v>
       </c>
       <c r="F19" t="n">
-        <v>365.9405071576813</v>
+        <v>370.6908545557492</v>
       </c>
       <c r="G19" t="n">
-        <v>198.7444078725612</v>
+        <v>203.4947552706291</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797773</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548757</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510511</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854709</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648822</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611862</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138443</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703141</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="20">
@@ -5741,46 +5741,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684185</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,16 +6130,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,16 +6221,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>261.8464821474262</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2252.19838578386</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7315,13 +7315,13 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192616</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,31 +7667,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345475</v>
@@ -7801,10 +7801,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>348.3028360680207</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>226.0515678194079</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>118.5249328492511</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922665</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>66.36248435538658</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>145.1398665102887</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>32.89260457060008</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012622</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>24.63391537253142</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>36.41624546988044</v>
+        <v>31.7134015457932</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>5.506781756523509</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228751</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>90.96364621897298</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-6.699085858273953e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189998.52678168</v>
+        <v>189998.5267816801</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126778</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.4867126777</v>
+        <v>225786.4867126778</v>
       </c>
       <c r="E2" t="n">
         <v>221965.3149147517</v>
@@ -26332,10 +26332,10 @@
         <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26350,10 +26350,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>220966.621001985</v>
+        <v>220966.6210019852</v>
       </c>
       <c r="D3" t="n">
-        <v>162386.8333621643</v>
+        <v>162386.8333621627</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>51375.48534024099</v>
+        <v>51375.48534024104</v>
       </c>
       <c r="L3" t="n">
-        <v>39221.6622992832</v>
+        <v>39221.66229928283</v>
       </c>
       <c r="M3" t="n">
-        <v>176574.0985452295</v>
+        <v>176574.0985452298</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204258.0585418866</v>
+        <v>204258.0585418869</v>
       </c>
       <c r="C4" t="n">
-        <v>219793.1782176781</v>
+        <v>219793.178217678</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888973</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189203</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.583971892</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
+        <v>24037.44323498548</v>
+      </c>
+      <c r="N4" t="n">
         <v>24037.44323498545</v>
       </c>
-      <c r="N4" t="n">
-        <v>24037.44323498547</v>
-      </c>
       <c r="O4" t="n">
-        <v>24037.44323498546</v>
+        <v>24037.44323498551</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498547</v>
+        <v>24037.44323498552</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>72868.68132712545</v>
+        <v>72868.68132712548</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-662602.2346926654</v>
+        <v>-662927.5797829474</v>
       </c>
       <c r="C6" t="n">
-        <v>-287841.9938341108</v>
+        <v>-287841.9938341109</v>
       </c>
       <c r="D6" t="n">
-        <v>-196002.4185942563</v>
+        <v>-196002.4185942549</v>
       </c>
       <c r="E6" t="n">
-        <v>-496647.0064553115</v>
+        <v>-496681.7443807478</v>
       </c>
       <c r="F6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935169</v>
       </c>
       <c r="G6" t="n">
-        <v>104796.2011189526</v>
+        <v>104761.4631935164</v>
       </c>
       <c r="H6" t="n">
-        <v>104796.2011189525</v>
+        <v>104761.4631935168</v>
       </c>
       <c r="I6" t="n">
-        <v>104796.2011189525</v>
+        <v>104761.4631935171</v>
       </c>
       <c r="J6" t="n">
-        <v>55731.25639040807</v>
+        <v>55696.51846497229</v>
       </c>
       <c r="K6" t="n">
-        <v>53420.71577871164</v>
+        <v>53385.97785327592</v>
       </c>
       <c r="L6" t="n">
-        <v>65574.53881966941</v>
+        <v>65539.80089423413</v>
       </c>
       <c r="M6" t="n">
-        <v>-77989.17092145226</v>
+        <v>-77989.17092145253</v>
       </c>
       <c r="N6" t="n">
-        <v>98584.92762377721</v>
+        <v>98584.92762377727</v>
       </c>
       <c r="O6" t="n">
-        <v>98584.92762377707</v>
+        <v>98584.92762377708</v>
       </c>
       <c r="P6" t="n">
-        <v>98584.92762377718</v>
+        <v>98584.92762377723</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>720.3075229210629</v>
+        <v>720.3075229210632</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>387.1443639382612</v>
+        <v>387.1443639382615</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,10 +26802,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>171.8375820081584</v>
+        <v>171.8375820081585</v>
       </c>
       <c r="D3" t="n">
-        <v>133.4031416166223</v>
+        <v>133.4031416166209</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039894</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>199.6187767719413</v>
+        <v>199.6187767719415</v>
       </c>
       <c r="D4" t="n">
-        <v>154.9705927879031</v>
+        <v>154.9705927879017</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719413</v>
+        <v>199.6187767719415</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879031</v>
+        <v>154.9705927879017</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>199.6187767719413</v>
+        <v>199.6187767719415</v>
       </c>
       <c r="L4" t="n">
-        <v>154.9705927879031</v>
+        <v>154.9705927879017</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734849</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>278.3460292309379</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>132.6443277157792</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846321</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>146.2497370946622</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310537</v>
+        <v>45.27499998310526</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>176.3077339270558</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>127.6160339275028</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402855</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>171.5037272356658</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>69.32111502881787</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>19.73168180344993</v>
       </c>
       <c r="G5" t="n">
-        <v>25.26266494201528</v>
+        <v>25.26266494201502</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>191.0587634296846</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>98.83908242502181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.0341090694062</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7941764535314</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.27207475090985</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>46.17885117990241</v>
+        <v>46.17885117990239</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.48447288405292</v>
+        <v>49.48447288405286</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.9048469569444</v>
       </c>
       <c r="T6" t="n">
-        <v>33.96447570691305</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8394517711275</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>189.3787429187097</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>116.3885522088505</v>
       </c>
       <c r="J7" t="n">
-        <v>35.16211642698455</v>
+        <v>35.16211642698451</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.73856566836535</v>
+        <v>42.7385656683653</v>
       </c>
       <c r="R7" t="n">
         <v>118.889440420324</v>
@@ -27828,7 +27828,7 @@
         <v>222.395679005775</v>
       </c>
       <c r="U7" t="n">
-        <v>11.4244592754693</v>
+        <v>11.42445927546879</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>103.8775586233445</v>
       </c>
       <c r="G8" t="n">
-        <v>147.8693230445104</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19250971734712</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>5.953054716190252</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>30.89430838942323</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>1.35451306064823</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.367863984070038e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.027721338012584e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2.933456001735078e-12</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.895708634858542</v>
+        <v>2.895708634858543</v>
       </c>
       <c r="H5" t="n">
-        <v>29.65567605674505</v>
+        <v>29.65567605674507</v>
       </c>
       <c r="I5" t="n">
-        <v>111.636807145384</v>
+        <v>111.6368071453841</v>
       </c>
       <c r="J5" t="n">
-        <v>245.7696507478254</v>
+        <v>245.7696507478255</v>
       </c>
       <c r="K5" t="n">
-        <v>368.3449972613876</v>
+        <v>368.3449972613877</v>
       </c>
       <c r="L5" t="n">
-        <v>456.9645403954398</v>
+        <v>456.9645403954399</v>
       </c>
       <c r="M5" t="n">
-        <v>508.4610988306053</v>
+        <v>508.4610988306056</v>
       </c>
       <c r="N5" t="n">
-        <v>516.6885309893972</v>
+        <v>516.6885309893975</v>
       </c>
       <c r="O5" t="n">
-        <v>487.8943282515226</v>
+        <v>487.8943282515228</v>
       </c>
       <c r="P5" t="n">
-        <v>416.4065213284522</v>
+        <v>416.4065213284524</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.7039558425806</v>
+        <v>312.7039558425807</v>
       </c>
       <c r="R5" t="n">
-        <v>181.897557534433</v>
+        <v>181.8975575344331</v>
       </c>
       <c r="S5" t="n">
-        <v>65.98596051683909</v>
+        <v>65.98596051683913</v>
       </c>
       <c r="T5" t="n">
-        <v>12.67596454909327</v>
+        <v>12.67596454909328</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2316566907886833</v>
+        <v>0.2316566907886834</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.549340709679267</v>
+        <v>1.549340709679268</v>
       </c>
       <c r="H6" t="n">
-        <v>14.96336948558661</v>
+        <v>14.96336948558662</v>
       </c>
       <c r="I6" t="n">
-        <v>53.34352882009759</v>
+        <v>53.34352882009761</v>
       </c>
       <c r="J6" t="n">
-        <v>146.3787202947417</v>
+        <v>146.3787202947418</v>
       </c>
       <c r="K6" t="n">
-        <v>250.1845478432526</v>
+        <v>250.1845478432527</v>
       </c>
       <c r="L6" t="n">
-        <v>336.4039992661059</v>
+        <v>336.403999266106</v>
       </c>
       <c r="M6" t="n">
-        <v>392.5675999919792</v>
+        <v>392.5675999919794</v>
       </c>
       <c r="N6" t="n">
-        <v>402.9576962424161</v>
+        <v>402.9576962424163</v>
       </c>
       <c r="O6" t="n">
-        <v>368.6275678858386</v>
+        <v>368.6275678858388</v>
       </c>
       <c r="P6" t="n">
-        <v>295.8561220088419</v>
+        <v>295.856122008842</v>
       </c>
       <c r="Q6" t="n">
-        <v>197.7719825197605</v>
+        <v>197.7719825197606</v>
       </c>
       <c r="R6" t="n">
-        <v>96.19503107991103</v>
+        <v>96.19503107991109</v>
       </c>
       <c r="S6" t="n">
-        <v>28.77832414689339</v>
+        <v>28.7783241468934</v>
       </c>
       <c r="T6" t="n">
-        <v>6.244930316645816</v>
+        <v>6.244930316645819</v>
       </c>
       <c r="U6" t="n">
         <v>0.1019303098473203</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29891520526749</v>
+        <v>1.298915205267491</v>
       </c>
       <c r="H7" t="n">
-        <v>11.54853700683278</v>
+        <v>11.54853700683279</v>
       </c>
       <c r="I7" t="n">
-        <v>39.06192271840781</v>
+        <v>39.06192271840783</v>
       </c>
       <c r="J7" t="n">
-        <v>91.83330501241156</v>
+        <v>91.8333050124116</v>
       </c>
       <c r="K7" t="n">
         <v>150.9103302119866</v>
       </c>
       <c r="L7" t="n">
-        <v>193.1132660631322</v>
+        <v>193.1132660631323</v>
       </c>
       <c r="M7" t="n">
-        <v>203.610862585703</v>
+        <v>203.6108625857031</v>
       </c>
       <c r="N7" t="n">
-        <v>198.7694513660698</v>
+        <v>198.7694513660699</v>
       </c>
       <c r="O7" t="n">
-        <v>183.5957601045359</v>
+        <v>183.595760104536</v>
       </c>
       <c r="P7" t="n">
-        <v>157.0978899170789</v>
+        <v>157.097889917079</v>
       </c>
       <c r="Q7" t="n">
         <v>108.7664359610805</v>
       </c>
       <c r="R7" t="n">
-        <v>58.4039509568455</v>
+        <v>58.40395095684553</v>
       </c>
       <c r="S7" t="n">
-        <v>22.63654953179798</v>
+        <v>22.63654953179799</v>
       </c>
       <c r="T7" t="n">
-        <v>5.549910422506548</v>
+        <v>5.54991042250655</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07084992028731774</v>
+        <v>0.07084992028731776</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694781</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>232.1537035940586</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>64.72374622113912</v>
+        <v>64.72374622113924</v>
       </c>
       <c r="K5" t="n">
-        <v>148.255146216407</v>
+        <v>148.2551462164072</v>
       </c>
       <c r="L5" t="n">
-        <v>221.1981254254525</v>
+        <v>221.1981254254527</v>
       </c>
       <c r="M5" t="n">
-        <v>278.1148656033325</v>
+        <v>278.1148656033329</v>
       </c>
       <c r="N5" t="n">
-        <v>287.2754673928063</v>
+        <v>287.2754673928065</v>
       </c>
       <c r="O5" t="n">
-        <v>257.7961168298358</v>
+        <v>257.796116829836</v>
       </c>
       <c r="P5" t="n">
-        <v>185.1735255731827</v>
+        <v>185.1735255731829</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.39826596813108</v>
+        <v>90.39826596813126</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>19.54109362807498</v>
+        <v>19.54109362807506</v>
       </c>
       <c r="K6" t="n">
-        <v>112.3431088688936</v>
+        <v>112.3431088688937</v>
       </c>
       <c r="L6" t="n">
-        <v>197.8496194862317</v>
+        <v>197.8496194862319</v>
       </c>
       <c r="M6" t="n">
-        <v>250.4335660699609</v>
+        <v>250.433566069961</v>
       </c>
       <c r="N6" t="n">
-        <v>271.6159841590828</v>
+        <v>271.615984159083</v>
       </c>
       <c r="O6" t="n">
-        <v>226.0313234413942</v>
+        <v>226.0313234413944</v>
       </c>
       <c r="P6" t="n">
-        <v>161.8817145945116</v>
+        <v>161.8817145945118</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.790208433739</v>
+        <v>57.79020843373911</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>21.8970720414512</v>
+        <v>21.89707204145125</v>
       </c>
       <c r="L7" t="n">
-        <v>58.2285897818939</v>
+        <v>58.22858978189399</v>
       </c>
       <c r="M7" t="n">
-        <v>64.68507863809796</v>
+        <v>64.68507863809805</v>
       </c>
       <c r="N7" t="n">
-        <v>71.08390690083661</v>
+        <v>71.08390690083669</v>
       </c>
       <c r="O7" t="n">
-        <v>45.1392216526931</v>
+        <v>45.13922165269318</v>
       </c>
       <c r="P7" t="n">
-        <v>19.36988586793132</v>
+        <v>19.3698858679314</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250337</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967204032</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191344</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
